--- a/public/uploads/log_absensi.xlsx
+++ b/public/uploads/log_absensi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>H</t>
   </si>
@@ -45,13 +45,25 @@
   </si>
   <si>
     <t>09-04-2019 19:02</t>
+  </si>
+  <si>
+    <t>09-05-2019 08:02</t>
+  </si>
+  <si>
+    <t>09-05-2019 19:02</t>
+  </si>
+  <si>
+    <t>09-03-2019 18:01</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +76,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,10 +105,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,23 +400,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>941445</v>
+        <v>7500017</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -394,13 +424,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>941445</v>
+        <v>7500017</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -408,13 +438,13 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>941445</v>
+        <v>7500017</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -422,8 +452,64 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>8005024</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>8005024</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>8005024</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>8005024</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/log_absensi.xlsx
+++ b/public/uploads/log_absensi.xlsx
@@ -24,49 +24,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>09-02-2019 08:00</t>
-  </si>
-  <si>
-    <t>09-02-2019 19:00</t>
-  </si>
-  <si>
-    <t>09-03-2019 08:01</t>
-  </si>
-  <si>
-    <t>09-04-2019 08:02</t>
-  </si>
-  <si>
-    <t>09-03-2019 19:01</t>
-  </si>
-  <si>
-    <t>09-04-2019 19:02</t>
-  </si>
-  <si>
-    <t>09-05-2019 08:02</t>
-  </si>
-  <si>
-    <t>09-05-2019 19:02</t>
-  </si>
-  <si>
-    <t>09-03-2019 18:01</t>
-  </si>
-  <si>
-    <t>I</t>
+    <t>2019-11-01 10:01</t>
+  </si>
+  <si>
+    <t>2019-11-01 18:35</t>
+  </si>
+  <si>
+    <t>2019-11-01 09:25</t>
+  </si>
+  <si>
+    <t>2019-11-01 16:44</t>
+  </si>
+  <si>
+    <t>2019-11-02 09:26</t>
+  </si>
+  <si>
+    <t>2019-11-02 18:38</t>
+  </si>
+  <si>
+    <t>Nik</t>
+  </si>
+  <si>
+    <t>Tanggal_masuk</t>
+  </si>
+  <si>
+    <t>Tanggal_pulang</t>
+  </si>
+  <si>
+    <t>Kode_status_kehadiran</t>
+  </si>
+  <si>
+    <t>2019-11-01 09:27</t>
+  </si>
+  <si>
+    <t>2019-11-01 18:39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,13 +104,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,21 +126,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,117 +428,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>7500017</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>7398006</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>7500017</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>7500017</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>8611032</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>8005024</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>8611032</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>8005024</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>941445</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>8005024</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>8005024</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
